--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/INVENTARIO ALMACEN   JUNIO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/INVENTARIO ALMACEN   JUNIO   2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14700" windowHeight="10215" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14700" windowHeight="10215" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO    2 0 2 2      " sheetId="1" r:id="rId1"/>
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="102">
   <si>
     <t>INVENTARIO ALMACEN</t>
   </si>
@@ -531,7 +531,68 @@
     </r>
   </si>
   <si>
-    <t>ESTE FALTANTE ES DESDE MAYO</t>
+    <t>Diferencia en cajas Traspaso # 0259A1 cajas 10  y registran solo 5 y 3 cajas no se porque tienen esas cajas de mas</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> dio de baja un TRASPASO CANCELADO  # 786Z</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  ASI QUE LE FALTA  DESDE  MAYO</t>
+    </r>
+  </si>
+  <si>
+    <t>SU SOBRANTE ES PORQUE EN FISICO DEBIO DAR UNA CAJA     MENOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diferencia con Bety  dio de baja un TRASPASO CANCELADO   #  0952 z    DESDE MAYO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.-  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.-    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.- </t>
+  </si>
+  <si>
+    <t>7.-</t>
+  </si>
+  <si>
+    <t>ESTA DIFERENCIA ES CONTRA INVENTARIO FISICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta diferencia es contra lo fisico  y registro en almacen el traspaso 371A1 </t>
+  </si>
+  <si>
+    <t>Diferencia de una Entrada  no registrada por ALMACEN</t>
+  </si>
+  <si>
+    <t>PERNIL FRESCO</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>8.-</t>
+  </si>
+  <si>
+    <t>TRASPASO 104 A1       ALMACEN  NO DIO DOCUMENTO DE ENTRADA  ?????</t>
   </si>
 </sst>
 </file>
@@ -542,7 +603,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -864,8 +925,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF660033"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -938,8 +1015,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="57">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -1623,12 +1718,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="353">
+  <cellXfs count="408">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2317,14 +2449,6 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2334,6 +2458,58 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="12" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="12" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2397,36 +2573,6 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2451,30 +2597,149 @@
     <xf numFmtId="0" fontId="34" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="12" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="12" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="24" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="13" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="13" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="15" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="15" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="41" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="23" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="33" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="33" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="33" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="33" fillId="12" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="33" fillId="15" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="33" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="33" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="33" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2485,13 +2750,15 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFCC99FF"/>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FF00FFFF"/>
+      <color rgb="FFCC66FF"/>
       <color rgb="FF99FF99"/>
-      <color rgb="FF00FFFF"/>
-      <color rgb="FFFFCCFF"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FF660033"/>
       <color rgb="FF66FF99"/>
-      <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2798,10 +3065,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="307" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="307"/>
+      <c r="B1" s="321" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="321"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -2813,50 +3080,50 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="308">
+      <c r="B2" s="322">
         <v>44591</v>
       </c>
-      <c r="C2" s="309"/>
-      <c r="F2" s="310" t="s">
+      <c r="C2" s="323"/>
+      <c r="F2" s="324" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="310"/>
-      <c r="H2" s="310"/>
+      <c r="G2" s="324"/>
+      <c r="H2" s="324"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="325" t="s">
+      <c r="K2" s="339" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="325"/>
+      <c r="L2" s="339"/>
       <c r="M2" s="8"/>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
-      <c r="C3" s="311" t="s">
+      <c r="C3" s="325" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="312"/>
+      <c r="D3" s="326"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="313" t="s">
+      <c r="F3" s="327" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="314"/>
+      <c r="G3" s="328"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="315" t="s">
+      <c r="I3" s="329" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="325"/>
-      <c r="L3" s="325"/>
-      <c r="M3" s="317" t="s">
+      <c r="K3" s="339"/>
+      <c r="L3" s="339"/>
+      <c r="M3" s="331" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="318"/>
-      <c r="O3" s="319" t="s">
+      <c r="N3" s="332"/>
+      <c r="O3" s="333" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="320"/>
+      <c r="P3" s="334"/>
     </row>
     <row r="4" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
@@ -2878,7 +3145,7 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="316"/>
+      <c r="I4" s="330"/>
       <c r="J4" s="13"/>
       <c r="K4" s="18" t="s">
         <v>10</v>
@@ -2935,8 +3202,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="321"/>
-      <c r="P5" s="322"/>
+      <c r="O5" s="335"/>
+      <c r="P5" s="336"/>
     </row>
     <row r="6" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
@@ -2974,8 +3241,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="323"/>
-      <c r="P6" s="324"/>
+      <c r="O6" s="337"/>
+      <c r="P6" s="338"/>
       <c r="S6" s="37"/>
       <c r="T6" s="38"/>
       <c r="U6" s="39"/>
@@ -3058,8 +3325,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="305"/>
-      <c r="P8" s="306"/>
+      <c r="O8" s="319"/>
+      <c r="P8" s="320"/>
     </row>
     <row r="9" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="24" t="s">
@@ -3140,8 +3407,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="328"/>
-      <c r="P10" s="329"/>
+      <c r="O10" s="311"/>
+      <c r="P10" s="312"/>
       <c r="Q10" s="53"/>
       <c r="R10" s="53"/>
     </row>
@@ -3292,8 +3559,8 @@
         <f>L14+I14</f>
         <v>-34</v>
       </c>
-      <c r="O14" s="330"/>
-      <c r="P14" s="330"/>
+      <c r="O14" s="313"/>
+      <c r="P14" s="313"/>
       <c r="Q14" s="163" t="s">
         <v>47</v>
       </c>
@@ -3507,8 +3774,8 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="O19" s="331"/>
-      <c r="P19" s="331"/>
+      <c r="O19" s="314"/>
+      <c r="P19" s="314"/>
       <c r="Q19" s="163" t="s">
         <v>49</v>
       </c>
@@ -3595,8 +3862,8 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="O21" s="332"/>
-      <c r="P21" s="332"/>
+      <c r="O21" s="315"/>
+      <c r="P21" s="315"/>
       <c r="Q21" s="163" t="s">
         <v>50</v>
       </c>
@@ -3640,8 +3907,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O22" s="333"/>
-      <c r="P22" s="334"/>
+      <c r="O22" s="316"/>
+      <c r="P22" s="317"/>
       <c r="Q22" s="150"/>
       <c r="R22" s="53"/>
       <c r="S22" s="53"/>
@@ -3747,8 +4014,8 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O25" s="335"/>
-      <c r="P25" s="335"/>
+      <c r="O25" s="318"/>
+      <c r="P25" s="318"/>
       <c r="Q25" s="163" t="s">
         <v>51</v>
       </c>
@@ -4140,10 +4407,10 @@
     <row r="37" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="126"/>
       <c r="D37" s="128"/>
-      <c r="F37" s="327" t="s">
+      <c r="F37" s="310" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="327"/>
+      <c r="G37" s="310"/>
       <c r="H37" s="129">
         <f>SUM(H5:H30)</f>
         <v>35456.6</v>
@@ -4172,7 +4439,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B40" s="326" t="s">
+      <c r="B40" s="309" t="s">
         <v>58</v>
       </c>
       <c r="C40" s="155" t="s">
@@ -4193,7 +4460,7 @@
       <c r="N40" s="160"/>
     </row>
     <row r="41" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B41" s="326"/>
+      <c r="B41" s="309"/>
       <c r="C41" s="155" t="s">
         <v>48</v>
       </c>
@@ -4212,7 +4479,7 @@
       <c r="N41" s="160"/>
     </row>
     <row r="42" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B42" s="326"/>
+      <c r="B42" s="309"/>
       <c r="C42" s="155" t="s">
         <v>49</v>
       </c>
@@ -4231,7 +4498,7 @@
       <c r="N42" s="160"/>
     </row>
     <row r="43" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B43" s="326"/>
+      <c r="B43" s="309"/>
       <c r="C43" s="155" t="s">
         <v>50</v>
       </c>
@@ -4250,7 +4517,7 @@
       <c r="N43" s="160"/>
     </row>
     <row r="44" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B44" s="326"/>
+      <c r="B44" s="309"/>
       <c r="C44" s="155" t="s">
         <v>51</v>
       </c>
@@ -4269,7 +4536,7 @@
       <c r="N44" s="160"/>
     </row>
     <row r="45" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B45" s="326"/>
+      <c r="B45" s="309"/>
       <c r="C45" s="155" t="s">
         <v>54</v>
       </c>
@@ -4295,14 +4562,6 @@
     <sortCondition ref="B7:B36"/>
   </sortState>
   <mergeCells count="20">
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O25:P25"/>
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
@@ -4315,6 +4574,14 @@
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O25:P25"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4358,10 +4625,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="307" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="307"/>
+      <c r="B1" s="321" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="321"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -4373,50 +4640,50 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="308">
+      <c r="B2" s="322">
         <v>44619</v>
       </c>
-      <c r="C2" s="309"/>
-      <c r="F2" s="310" t="s">
+      <c r="C2" s="323"/>
+      <c r="F2" s="324" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="310"/>
-      <c r="H2" s="310"/>
+      <c r="G2" s="324"/>
+      <c r="H2" s="324"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="325" t="s">
+      <c r="K2" s="339" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="325"/>
+      <c r="L2" s="339"/>
       <c r="M2" s="8"/>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
-      <c r="C3" s="311" t="s">
+      <c r="C3" s="325" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="312"/>
+      <c r="D3" s="326"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="313" t="s">
+      <c r="F3" s="327" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="314"/>
+      <c r="G3" s="328"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="315" t="s">
+      <c r="I3" s="329" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="325"/>
-      <c r="L3" s="325"/>
-      <c r="M3" s="317" t="s">
+      <c r="K3" s="339"/>
+      <c r="L3" s="339"/>
+      <c r="M3" s="331" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="318"/>
-      <c r="O3" s="319" t="s">
+      <c r="N3" s="332"/>
+      <c r="O3" s="333" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="320"/>
+      <c r="P3" s="334"/>
     </row>
     <row r="4" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
@@ -4438,7 +4705,7 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="316"/>
+      <c r="I4" s="330"/>
       <c r="J4" s="13"/>
       <c r="K4" s="18" t="s">
         <v>10</v>
@@ -4495,8 +4762,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="321"/>
-      <c r="P5" s="322"/>
+      <c r="O5" s="335"/>
+      <c r="P5" s="336"/>
     </row>
     <row r="6" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
@@ -4534,8 +4801,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="323"/>
-      <c r="P6" s="324"/>
+      <c r="O6" s="337"/>
+      <c r="P6" s="338"/>
       <c r="S6" s="37"/>
       <c r="T6" s="38"/>
       <c r="U6" s="39"/>
@@ -4620,8 +4887,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="305"/>
-      <c r="P8" s="305"/>
+      <c r="O8" s="319"/>
+      <c r="P8" s="319"/>
       <c r="Q8" s="193"/>
       <c r="R8" s="1"/>
     </row>
@@ -4693,8 +4960,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="328"/>
-      <c r="P10" s="328"/>
+      <c r="O10" s="311"/>
+      <c r="P10" s="311"/>
       <c r="Q10" s="193"/>
       <c r="R10" s="185"/>
     </row>
@@ -4818,8 +5085,8 @@
         <f t="shared" ref="N13:N33" si="2">L13-I13</f>
         <v>0</v>
       </c>
-      <c r="O13" s="330"/>
-      <c r="P13" s="330"/>
+      <c r="O13" s="313"/>
+      <c r="P13" s="313"/>
       <c r="Q13" s="199" t="s">
         <v>64</v>
       </c>
@@ -5015,8 +5282,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O18" s="331"/>
-      <c r="P18" s="331"/>
+      <c r="O18" s="314"/>
+      <c r="P18" s="314"/>
       <c r="Q18" s="187"/>
       <c r="R18" s="185"/>
       <c r="S18" s="53"/>
@@ -5097,8 +5364,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O20" s="332"/>
-      <c r="P20" s="332"/>
+      <c r="O20" s="315"/>
+      <c r="P20" s="315"/>
       <c r="Q20" s="187"/>
       <c r="R20" s="189"/>
       <c r="S20" s="76"/>
@@ -5132,8 +5399,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O21" s="333"/>
-      <c r="P21" s="333"/>
+      <c r="O21" s="316"/>
+      <c r="P21" s="316"/>
       <c r="Q21" s="187"/>
       <c r="R21" s="185"/>
       <c r="S21" s="53"/>
@@ -5241,8 +5508,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O24" s="335"/>
-      <c r="P24" s="335"/>
+      <c r="O24" s="318"/>
+      <c r="P24" s="318"/>
       <c r="Q24" s="187"/>
       <c r="R24" s="1"/>
     </row>
@@ -5643,10 +5910,10 @@
     <row r="36" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="126"/>
       <c r="D36" s="128"/>
-      <c r="F36" s="327" t="s">
+      <c r="F36" s="310" t="s">
         <v>43</v>
       </c>
-      <c r="G36" s="327"/>
+      <c r="G36" s="310"/>
       <c r="H36" s="129">
         <f>SUM(H5:H29)</f>
         <v>22064.760000000002</v>
@@ -5684,7 +5951,7 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="326" t="s">
+      <c r="B39" s="309" t="s">
         <v>58</v>
       </c>
       <c r="C39" s="155" t="s">
@@ -5705,7 +5972,7 @@
       <c r="N39" s="212"/>
     </row>
     <row r="40" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="326"/>
+      <c r="B40" s="309"/>
       <c r="C40" s="204"/>
       <c r="D40" s="213"/>
       <c r="E40" s="214"/>
@@ -5720,7 +5987,7 @@
       <c r="N40" s="212"/>
     </row>
     <row r="41" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="326"/>
+      <c r="B41" s="309"/>
       <c r="C41" s="201" t="s">
         <v>48</v>
       </c>
@@ -5739,7 +6006,7 @@
       <c r="N41" s="212"/>
     </row>
     <row r="42" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B42" s="336"/>
+      <c r="B42" s="340"/>
       <c r="C42" s="204"/>
       <c r="D42" s="205"/>
       <c r="E42" s="185"/>
@@ -5754,7 +6021,7 @@
       <c r="N42" s="208"/>
     </row>
     <row r="43" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B43" s="336"/>
+      <c r="B43" s="340"/>
       <c r="C43" s="204"/>
       <c r="D43" s="209"/>
       <c r="E43" s="185"/>
@@ -5769,7 +6036,7 @@
       <c r="N43" s="208"/>
     </row>
     <row r="44" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B44" s="336"/>
+      <c r="B44" s="340"/>
       <c r="C44" s="204"/>
       <c r="D44" s="210"/>
       <c r="E44" s="185"/>
@@ -5791,18 +6058,6 @@
     <sortCondition ref="B9:B16"/>
   </sortState>
   <mergeCells count="20">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O8:P8"/>
     <mergeCell ref="O24:P24"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="B39:B44"/>
@@ -5811,6 +6066,18 @@
     <mergeCell ref="O18:P18"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="O21:P21"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.27559055118110237" top="0.35433070866141736" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5851,10 +6118,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="307" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="307"/>
+      <c r="B1" s="321" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="321"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -5866,50 +6133,50 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="308">
+      <c r="B2" s="322">
         <v>44647</v>
       </c>
-      <c r="C2" s="309"/>
-      <c r="F2" s="310" t="s">
+      <c r="C2" s="323"/>
+      <c r="F2" s="324" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="310"/>
-      <c r="H2" s="310"/>
+      <c r="G2" s="324"/>
+      <c r="H2" s="324"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="325" t="s">
+      <c r="K2" s="339" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="325"/>
+      <c r="L2" s="339"/>
       <c r="M2" s="8"/>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
-      <c r="C3" s="311" t="s">
+      <c r="C3" s="325" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="312"/>
+      <c r="D3" s="326"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="313" t="s">
+      <c r="F3" s="327" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="314"/>
+      <c r="G3" s="328"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="315" t="s">
+      <c r="I3" s="329" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="325"/>
-      <c r="L3" s="325"/>
-      <c r="M3" s="317" t="s">
+      <c r="K3" s="339"/>
+      <c r="L3" s="339"/>
+      <c r="M3" s="331" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="318"/>
-      <c r="O3" s="319" t="s">
+      <c r="N3" s="332"/>
+      <c r="O3" s="333" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="320"/>
+      <c r="P3" s="334"/>
     </row>
     <row r="4" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
@@ -5931,7 +6198,7 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="316"/>
+      <c r="I4" s="330"/>
       <c r="J4" s="13"/>
       <c r="K4" s="18" t="s">
         <v>10</v>
@@ -5988,8 +6255,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="321"/>
-      <c r="P5" s="322"/>
+      <c r="O5" s="335"/>
+      <c r="P5" s="336"/>
     </row>
     <row r="6" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
@@ -6027,8 +6294,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="323"/>
-      <c r="P6" s="324"/>
+      <c r="O6" s="337"/>
+      <c r="P6" s="338"/>
       <c r="S6" s="37"/>
       <c r="T6" s="38"/>
       <c r="U6" s="39"/>
@@ -6113,8 +6380,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="305"/>
-      <c r="P8" s="305"/>
+      <c r="O8" s="319"/>
+      <c r="P8" s="319"/>
       <c r="Q8" s="193"/>
       <c r="R8" s="1"/>
     </row>
@@ -6186,8 +6453,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="328"/>
-      <c r="P10" s="328"/>
+      <c r="O10" s="311"/>
+      <c r="P10" s="311"/>
       <c r="Q10" s="193"/>
       <c r="R10" s="185"/>
     </row>
@@ -6303,8 +6570,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="330"/>
-      <c r="P13" s="330"/>
+      <c r="O13" s="313"/>
+      <c r="P13" s="313"/>
       <c r="Q13" s="187"/>
       <c r="R13" s="188"/>
       <c r="S13" s="64"/>
@@ -6494,8 +6761,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O18" s="331"/>
-      <c r="P18" s="331"/>
+      <c r="O18" s="314"/>
+      <c r="P18" s="314"/>
       <c r="Q18" s="187"/>
       <c r="R18" s="185"/>
       <c r="S18" s="53"/>
@@ -6564,8 +6831,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O20" s="332"/>
-      <c r="P20" s="332"/>
+      <c r="O20" s="315"/>
+      <c r="P20" s="315"/>
       <c r="Q20" s="187"/>
       <c r="R20" s="189"/>
       <c r="S20" s="76"/>
@@ -6599,8 +6866,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O21" s="333"/>
-      <c r="P21" s="333"/>
+      <c r="O21" s="316"/>
+      <c r="P21" s="316"/>
       <c r="Q21" s="187"/>
       <c r="R21" s="185"/>
       <c r="S21" s="53"/>
@@ -6708,8 +6975,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O24" s="335"/>
-      <c r="P24" s="335"/>
+      <c r="O24" s="318"/>
+      <c r="P24" s="318"/>
       <c r="Q24" s="187"/>
       <c r="R24" s="185"/>
     </row>
@@ -7149,10 +7416,10 @@
     <row r="37" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="126"/>
       <c r="D37" s="128"/>
-      <c r="F37" s="327" t="s">
+      <c r="F37" s="310" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="327"/>
+      <c r="G37" s="310"/>
       <c r="H37" s="129">
         <f>SUM(H5:H29)</f>
         <v>19776.46</v>
@@ -7285,6 +7552,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="O21:P21"/>
     <mergeCell ref="O24:P24"/>
@@ -7292,18 +7571,6 @@
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="O18:P18"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O8:P8"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7344,10 +7611,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="307" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="307"/>
+      <c r="B1" s="321" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="321"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -7359,50 +7626,50 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="308">
+      <c r="B2" s="322">
         <v>44682</v>
       </c>
-      <c r="C2" s="309"/>
-      <c r="F2" s="310" t="s">
+      <c r="C2" s="323"/>
+      <c r="F2" s="324" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="310"/>
-      <c r="H2" s="310"/>
+      <c r="G2" s="324"/>
+      <c r="H2" s="324"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="325" t="s">
+      <c r="K2" s="339" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="325"/>
+      <c r="L2" s="339"/>
       <c r="M2" s="8"/>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
-      <c r="C3" s="311" t="s">
+      <c r="C3" s="325" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="312"/>
+      <c r="D3" s="326"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="313" t="s">
+      <c r="F3" s="327" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="314"/>
+      <c r="G3" s="328"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="315" t="s">
+      <c r="I3" s="329" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="325"/>
-      <c r="L3" s="325"/>
-      <c r="M3" s="317" t="s">
+      <c r="K3" s="339"/>
+      <c r="L3" s="339"/>
+      <c r="M3" s="331" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="318"/>
-      <c r="O3" s="319" t="s">
+      <c r="N3" s="332"/>
+      <c r="O3" s="333" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="320"/>
+      <c r="P3" s="334"/>
     </row>
     <row r="4" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
@@ -7424,7 +7691,7 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="316"/>
+      <c r="I4" s="330"/>
       <c r="J4" s="13"/>
       <c r="K4" s="18" t="s">
         <v>10</v>
@@ -7481,8 +7748,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="321"/>
-      <c r="P5" s="322"/>
+      <c r="O5" s="335"/>
+      <c r="P5" s="336"/>
     </row>
     <row r="6" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
@@ -7520,8 +7787,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="323"/>
-      <c r="P6" s="324"/>
+      <c r="O6" s="337"/>
+      <c r="P6" s="338"/>
       <c r="S6" s="37"/>
       <c r="T6" s="38"/>
       <c r="U6" s="39"/>
@@ -7606,8 +7873,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="305"/>
-      <c r="P8" s="305"/>
+      <c r="O8" s="319"/>
+      <c r="P8" s="319"/>
       <c r="Q8" s="193"/>
       <c r="R8" s="1"/>
     </row>
@@ -7687,8 +7954,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="328"/>
-      <c r="P10" s="328"/>
+      <c r="O10" s="311"/>
+      <c r="P10" s="311"/>
       <c r="Q10" s="193"/>
       <c r="R10" s="185"/>
     </row>
@@ -7804,8 +8071,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="330"/>
-      <c r="P13" s="330"/>
+      <c r="O13" s="313"/>
+      <c r="P13" s="313"/>
       <c r="Q13" s="187"/>
       <c r="R13" s="188"/>
       <c r="S13" s="64"/>
@@ -7995,8 +8262,8 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="O18" s="331"/>
-      <c r="P18" s="331"/>
+      <c r="O18" s="314"/>
+      <c r="P18" s="314"/>
       <c r="Q18" s="187"/>
       <c r="R18" s="185"/>
       <c r="S18" s="53"/>
@@ -8081,8 +8348,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O20" s="332"/>
-      <c r="P20" s="332"/>
+      <c r="O20" s="315"/>
+      <c r="P20" s="315"/>
       <c r="Q20" s="187"/>
       <c r="R20" s="189"/>
       <c r="S20" s="76"/>
@@ -8116,8 +8383,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O21" s="333"/>
-      <c r="P21" s="333"/>
+      <c r="O21" s="316"/>
+      <c r="P21" s="316"/>
       <c r="Q21" s="187"/>
       <c r="R21" s="185"/>
       <c r="S21" s="53"/>
@@ -8225,8 +8492,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O24" s="335"/>
-      <c r="P24" s="335"/>
+      <c r="O24" s="318"/>
+      <c r="P24" s="318"/>
       <c r="Q24" s="187"/>
       <c r="R24" s="185"/>
     </row>
@@ -8674,10 +8941,10 @@
     <row r="37" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="126"/>
       <c r="D37" s="128"/>
-      <c r="F37" s="327" t="s">
+      <c r="F37" s="310" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="327"/>
+      <c r="G37" s="310"/>
       <c r="H37" s="129">
         <f>SUM(H5:H29)</f>
         <v>33269.280000000006</v>
@@ -8716,7 +8983,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="2:18" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="337" t="s">
+      <c r="B40" s="341" t="s">
         <v>58</v>
       </c>
       <c r="C40" s="254" t="s">
@@ -8737,7 +9004,7 @@
       <c r="N40" s="212"/>
     </row>
     <row r="41" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="337"/>
+      <c r="B41" s="341"/>
       <c r="C41" s="204"/>
       <c r="D41" s="249"/>
       <c r="E41" s="250"/>
@@ -8816,6 +9083,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O8:P8"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
@@ -8825,17 +9103,6 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="F37:G37"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8851,7 +9118,7 @@
   <dimension ref="B1:X47"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="D43" sqref="D43:K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8876,10 +9143,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="307" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="307"/>
+      <c r="B1" s="321" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="321"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -8891,50 +9158,50 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="308">
+      <c r="B2" s="322">
         <v>44710</v>
       </c>
-      <c r="C2" s="309"/>
-      <c r="F2" s="310" t="s">
+      <c r="C2" s="323"/>
+      <c r="F2" s="324" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="310"/>
-      <c r="H2" s="310"/>
+      <c r="G2" s="324"/>
+      <c r="H2" s="324"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="325" t="s">
+      <c r="K2" s="339" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="325"/>
+      <c r="L2" s="339"/>
       <c r="M2" s="8"/>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
-      <c r="C3" s="311" t="s">
+      <c r="C3" s="325" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="312"/>
+      <c r="D3" s="326"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="313" t="s">
+      <c r="F3" s="327" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="314"/>
+      <c r="G3" s="328"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="315" t="s">
+      <c r="I3" s="329" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="325"/>
-      <c r="L3" s="325"/>
-      <c r="M3" s="317" t="s">
+      <c r="K3" s="339"/>
+      <c r="L3" s="339"/>
+      <c r="M3" s="331" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="318"/>
-      <c r="O3" s="319" t="s">
+      <c r="N3" s="332"/>
+      <c r="O3" s="333" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="320"/>
+      <c r="P3" s="334"/>
     </row>
     <row r="4" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
@@ -8956,7 +9223,7 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="316"/>
+      <c r="I4" s="330"/>
       <c r="J4" s="13"/>
       <c r="K4" s="18" t="s">
         <v>10</v>
@@ -9013,8 +9280,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="321"/>
-      <c r="P5" s="322"/>
+      <c r="O5" s="335"/>
+      <c r="P5" s="336"/>
     </row>
     <row r="6" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
@@ -9052,8 +9319,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="323"/>
-      <c r="P6" s="324"/>
+      <c r="O6" s="337"/>
+      <c r="P6" s="338"/>
       <c r="S6" s="37"/>
       <c r="T6" s="38"/>
       <c r="U6" s="39"/>
@@ -9142,8 +9409,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="305"/>
-      <c r="P8" s="305"/>
+      <c r="O8" s="319"/>
+      <c r="P8" s="319"/>
       <c r="Q8" s="193"/>
       <c r="R8" s="1"/>
     </row>
@@ -9229,8 +9496,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="328"/>
-      <c r="P10" s="328"/>
+      <c r="O10" s="311"/>
+      <c r="P10" s="311"/>
       <c r="Q10" s="193"/>
       <c r="R10" s="185"/>
     </row>
@@ -9346,8 +9613,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="330"/>
-      <c r="P13" s="330"/>
+      <c r="O13" s="313"/>
+      <c r="P13" s="313"/>
       <c r="Q13" s="187"/>
       <c r="R13" s="188"/>
       <c r="S13" s="64"/>
@@ -9545,8 +9812,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O18" s="331"/>
-      <c r="P18" s="331"/>
+      <c r="O18" s="314"/>
+      <c r="P18" s="314"/>
       <c r="Q18" s="187"/>
       <c r="R18" s="185"/>
       <c r="S18" s="53"/>
@@ -9623,8 +9890,8 @@
         <f t="shared" si="1"/>
         <v>-21</v>
       </c>
-      <c r="O20" s="332"/>
-      <c r="P20" s="332"/>
+      <c r="O20" s="315"/>
+      <c r="P20" s="315"/>
       <c r="Q20" s="187"/>
       <c r="R20" s="189"/>
       <c r="S20" s="76"/>
@@ -9658,8 +9925,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O21" s="333"/>
-      <c r="P21" s="333"/>
+      <c r="O21" s="316"/>
+      <c r="P21" s="316"/>
       <c r="Q21" s="187"/>
       <c r="R21" s="185"/>
       <c r="S21" s="53"/>
@@ -9771,8 +10038,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O24" s="335"/>
-      <c r="P24" s="335"/>
+      <c r="O24" s="318"/>
+      <c r="P24" s="318"/>
       <c r="Q24" s="187"/>
       <c r="R24" s="185"/>
     </row>
@@ -10233,10 +10500,10 @@
     <row r="37" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="126"/>
       <c r="D37" s="128"/>
-      <c r="F37" s="327" t="s">
+      <c r="F37" s="310" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="327"/>
+      <c r="G37" s="310"/>
       <c r="H37" s="129">
         <f>SUM(H5:H29)</f>
         <v>41344.509999999995</v>
@@ -10275,28 +10542,28 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="2:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="337" t="s">
+      <c r="B40" s="341" t="s">
         <v>58</v>
       </c>
       <c r="C40" s="254" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="348" t="s">
+      <c r="D40" s="305" t="s">
         <v>84</v>
       </c>
-      <c r="E40" s="344"/>
-      <c r="F40" s="344"/>
-      <c r="G40" s="345"/>
-      <c r="H40" s="345"/>
-      <c r="I40" s="345"/>
-      <c r="J40" s="345"/>
-      <c r="K40" s="345"/>
-      <c r="L40" s="346"/>
-      <c r="M40" s="347"/>
+      <c r="E40" s="301"/>
+      <c r="F40" s="301"/>
+      <c r="G40" s="302"/>
+      <c r="H40" s="302"/>
+      <c r="I40" s="302"/>
+      <c r="J40" s="302"/>
+      <c r="K40" s="302"/>
+      <c r="L40" s="303"/>
+      <c r="M40" s="304"/>
       <c r="N40" s="212"/>
     </row>
     <row r="41" spans="2:18" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="337"/>
+      <c r="B41" s="341"/>
       <c r="C41" s="291" t="s">
         <v>48</v>
       </c>
@@ -10315,18 +10582,18 @@
       <c r="N41" s="212"/>
     </row>
     <row r="42" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="337"/>
+      <c r="B42" s="341"/>
       <c r="C42" s="281" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="300" t="s">
+      <c r="D42" s="296" t="s">
         <v>77</v>
       </c>
-      <c r="E42" s="301"/>
-      <c r="F42" s="301"/>
-      <c r="G42" s="302"/>
-      <c r="H42" s="302"/>
-      <c r="I42" s="302"/>
+      <c r="E42" s="297"/>
+      <c r="F42" s="297"/>
+      <c r="G42" s="298"/>
+      <c r="H42" s="298"/>
+      <c r="I42" s="298"/>
       <c r="J42" s="251"/>
       <c r="K42" s="251"/>
       <c r="L42" s="252"/>
@@ -10338,16 +10605,16 @@
       <c r="C43" s="287" t="s">
         <v>49</v>
       </c>
-      <c r="D43" s="338" t="s">
+      <c r="D43" s="342" t="s">
         <v>79</v>
       </c>
-      <c r="E43" s="339"/>
-      <c r="F43" s="339"/>
-      <c r="G43" s="339"/>
-      <c r="H43" s="339"/>
-      <c r="I43" s="339"/>
-      <c r="J43" s="339"/>
-      <c r="K43" s="340"/>
+      <c r="E43" s="343"/>
+      <c r="F43" s="343"/>
+      <c r="G43" s="343"/>
+      <c r="H43" s="343"/>
+      <c r="I43" s="343"/>
+      <c r="J43" s="343"/>
+      <c r="K43" s="344"/>
       <c r="L43" s="206"/>
       <c r="M43" s="211"/>
       <c r="N43" s="212"/>
@@ -10355,14 +10622,14 @@
     <row r="44" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="244"/>
       <c r="C44" s="204"/>
-      <c r="D44" s="341"/>
-      <c r="E44" s="342"/>
-      <c r="F44" s="342"/>
-      <c r="G44" s="342"/>
-      <c r="H44" s="342"/>
-      <c r="I44" s="342"/>
-      <c r="J44" s="342"/>
-      <c r="K44" s="343"/>
+      <c r="D44" s="345"/>
+      <c r="E44" s="346"/>
+      <c r="F44" s="346"/>
+      <c r="G44" s="346"/>
+      <c r="H44" s="346"/>
+      <c r="I44" s="346"/>
+      <c r="J44" s="346"/>
+      <c r="K44" s="347"/>
       <c r="L44" s="206"/>
       <c r="M44" s="207"/>
       <c r="N44" s="208"/>
@@ -10402,6 +10669,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D43:K44"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="F37:G37"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
@@ -10415,14 +10690,6 @@
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="O8:P8"/>
-    <mergeCell ref="D43:K44"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="F37:G37"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.11811023622047245" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10435,10 +10702,10 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="B1:X46"/>
+  <dimension ref="B1:X47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10459,14 +10726,14 @@
     <col min="14" max="14" width="10" style="127" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.5703125" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" style="53"/>
+    <col min="17" max="17" width="11.42578125" style="369"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="307" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="307"/>
+      <c r="B1" s="321" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="321"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -10478,50 +10745,50 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="308">
+      <c r="B2" s="322">
         <v>44745</v>
       </c>
-      <c r="C2" s="309"/>
-      <c r="F2" s="310" t="s">
+      <c r="C2" s="323"/>
+      <c r="F2" s="324" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="310"/>
-      <c r="H2" s="310"/>
+      <c r="G2" s="324"/>
+      <c r="H2" s="324"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="325" t="s">
+      <c r="K2" s="339" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="325"/>
+      <c r="L2" s="339"/>
       <c r="M2" s="8"/>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
-      <c r="C3" s="311" t="s">
+      <c r="C3" s="325" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="312"/>
+      <c r="D3" s="326"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="313" t="s">
+      <c r="F3" s="327" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="314"/>
+      <c r="G3" s="328"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="315" t="s">
+      <c r="I3" s="329" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="325"/>
-      <c r="L3" s="325"/>
-      <c r="M3" s="317" t="s">
+      <c r="K3" s="339"/>
+      <c r="L3" s="339"/>
+      <c r="M3" s="331" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="318"/>
-      <c r="O3" s="319" t="s">
+      <c r="N3" s="332"/>
+      <c r="O3" s="333" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="320"/>
+      <c r="P3" s="334"/>
     </row>
     <row r="4" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
@@ -10543,7 +10810,7 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="316"/>
+      <c r="I4" s="330"/>
       <c r="J4" s="13"/>
       <c r="K4" s="18" t="s">
         <v>10</v>
@@ -10578,7 +10845,7 @@
         <v>24</v>
       </c>
       <c r="H5" s="29">
-        <f t="shared" ref="H5:H33" si="0">F5+C5</f>
+        <f t="shared" ref="H5:H34" si="0">F5+C5</f>
         <v>288.36</v>
       </c>
       <c r="I5" s="30">
@@ -10596,12 +10863,12 @@
         <f>K5-H5</f>
         <v>-3.0000000000029559E-2</v>
       </c>
-      <c r="N5" s="33">
+      <c r="N5" s="349">
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="321"/>
-      <c r="P5" s="322"/>
+      <c r="O5" s="335"/>
+      <c r="P5" s="336"/>
     </row>
     <row r="6" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
@@ -10635,12 +10902,12 @@
         <f t="shared" ref="M6:N21" si="2">K6-H6</f>
         <v>0</v>
       </c>
-      <c r="N6" s="36">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="323"/>
-      <c r="P6" s="324"/>
+      <c r="N6" s="350">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="337"/>
+      <c r="P6" s="338"/>
       <c r="S6" s="37"/>
       <c r="T6" s="38"/>
       <c r="U6" s="39"/>
@@ -10680,13 +10947,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N7" s="43">
+      <c r="N7" s="270">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O7" s="193"/>
-      <c r="P7" s="304"/>
-      <c r="Q7" s="185"/>
+      <c r="P7" s="300"/>
+      <c r="Q7" s="370"/>
       <c r="R7" s="185"/>
     </row>
     <row r="8" spans="2:24" ht="18" thickTop="1" x14ac:dyDescent="0.3">
@@ -10721,17 +10988,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N8" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="305"/>
-      <c r="P8" s="305"/>
-      <c r="Q8" s="193"/>
+      <c r="N8" s="270">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="319"/>
+      <c r="P8" s="319"/>
+      <c r="Q8" s="300"/>
       <c r="R8" s="185"/>
     </row>
     <row r="9" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="255" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="25"/>
@@ -10757,18 +11024,18 @@
       <c r="L9" s="52">
         <v>93</v>
       </c>
-      <c r="M9" s="42">
+      <c r="M9" s="247">
         <f t="shared" si="2"/>
         <v>-110.42000000000007</v>
       </c>
-      <c r="N9" s="43">
+      <c r="N9" s="248">
         <f t="shared" si="2"/>
         <v>-4</v>
       </c>
       <c r="O9" s="48"/>
       <c r="P9" s="170"/>
-      <c r="Q9" s="186" t="s">
-        <v>85</v>
+      <c r="Q9" s="372" t="s">
+        <v>93</v>
       </c>
       <c r="R9" s="185"/>
     </row>
@@ -10808,13 +11075,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N10" s="192">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="328"/>
-      <c r="P10" s="328"/>
-      <c r="Q10" s="193"/>
+      <c r="N10" s="270">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="311"/>
+      <c r="P10" s="311"/>
+      <c r="Q10" s="300"/>
       <c r="R10" s="185"/>
     </row>
     <row r="11" spans="2:24" ht="17.25" x14ac:dyDescent="0.3">
@@ -10849,13 +11116,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N11" s="192">
+      <c r="N11" s="270">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O11" s="288"/>
       <c r="P11" s="288"/>
-      <c r="Q11" s="193"/>
+      <c r="Q11" s="300"/>
       <c r="R11" s="185"/>
     </row>
     <row r="12" spans="2:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10890,19 +11157,19 @@
         <f t="shared" si="2"/>
         <v>-3.0000000000029559E-2</v>
       </c>
-      <c r="N12" s="192">
+      <c r="N12" s="270">
         <f>L12-I12</f>
         <v>0</v>
       </c>
       <c r="O12" s="61"/>
       <c r="P12" s="171"/>
-      <c r="Q12" s="193"/>
+      <c r="Q12" s="300"/>
       <c r="R12" s="185"/>
       <c r="S12" s="53"/>
       <c r="T12" s="53"/>
     </row>
     <row r="13" spans="2:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="361" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="25"/>
@@ -10929,17 +11196,19 @@
       <c r="L13" s="52">
         <v>75</v>
       </c>
-      <c r="M13" s="220">
+      <c r="M13" s="358">
         <f t="shared" si="2"/>
         <v>4.8299999999999272</v>
       </c>
-      <c r="N13" s="192">
+      <c r="N13" s="359">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="O13" s="330"/>
-      <c r="P13" s="330"/>
-      <c r="Q13" s="187"/>
+      <c r="O13" s="313"/>
+      <c r="P13" s="313"/>
+      <c r="Q13" s="371" t="s">
+        <v>91</v>
+      </c>
       <c r="R13" s="188"/>
       <c r="S13" s="64"/>
       <c r="T13" s="53"/>
@@ -10976,7 +11245,7 @@
         <f t="shared" si="2"/>
         <v>1.8499999999999943</v>
       </c>
-      <c r="N14" s="192">
+      <c r="N14" s="270">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11011,7 +11280,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N15" s="192">
+      <c r="N15" s="270">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11054,7 +11323,7 @@
         <f t="shared" si="2"/>
         <v>-0.69000000000005457</v>
       </c>
-      <c r="N16" s="192">
+      <c r="N16" s="270">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11070,7 +11339,7 @@
         <v>82</v>
       </c>
       <c r="C17" s="84"/>
-      <c r="D17" s="303"/>
+      <c r="D17" s="299"/>
       <c r="E17" s="27"/>
       <c r="F17" s="25">
         <v>296.94</v>
@@ -11097,7 +11366,7 @@
         <f>K17-H17</f>
         <v>0</v>
       </c>
-      <c r="N17" s="192">
+      <c r="N17" s="270">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11109,7 +11378,7 @@
       <c r="T17" s="53"/>
     </row>
     <row r="18" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="264" t="s">
+      <c r="B18" s="360" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="265"/>
@@ -11136,17 +11405,19 @@
       <c r="L18" s="52">
         <v>127</v>
       </c>
-      <c r="M18" s="220">
+      <c r="M18" s="351">
         <f t="shared" si="2"/>
         <v>4.3400000000000318</v>
       </c>
-      <c r="N18" s="270">
+      <c r="N18" s="352">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O18" s="331"/>
-      <c r="P18" s="331"/>
-      <c r="Q18" s="187"/>
+      <c r="O18" s="314"/>
+      <c r="P18" s="314"/>
+      <c r="Q18" s="373" t="s">
+        <v>92</v>
+      </c>
       <c r="R18" s="185"/>
       <c r="S18" s="53"/>
       <c r="T18" s="53"/>
@@ -11183,7 +11454,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N19" s="192">
+      <c r="N19" s="270">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11222,17 +11493,19 @@
       <c r="L20" s="52">
         <v>0</v>
       </c>
-      <c r="M20" s="349">
+      <c r="M20" s="306">
         <f t="shared" si="2"/>
         <v>-29.34</v>
       </c>
-      <c r="N20" s="350">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="351"/>
-      <c r="P20" s="351"/>
-      <c r="Q20" s="352"/>
+      <c r="N20" s="307">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="348"/>
+      <c r="P20" s="348"/>
+      <c r="Q20" s="308" t="s">
+        <v>89</v>
+      </c>
       <c r="R20" s="189"/>
       <c r="S20" s="76"/>
       <c r="T20" s="53"/>
@@ -11261,12 +11534,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N21" s="192">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="333"/>
-      <c r="P21" s="333"/>
+      <c r="N21" s="270">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="316"/>
+      <c r="P21" s="316"/>
       <c r="Q21" s="187"/>
       <c r="R21" s="185"/>
       <c r="S21" s="53"/>
@@ -11293,10 +11566,10 @@
       <c r="K22" s="77"/>
       <c r="L22" s="78"/>
       <c r="M22" s="191">
-        <f t="shared" ref="M22:N35" si="3">K22-H22</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="192">
+        <f t="shared" ref="M22:N36" si="3">K22-H22</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="270">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -11329,7 +11602,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N23" s="192">
+      <c r="N23" s="270">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -11339,7 +11612,7 @@
       <c r="R23" s="185"/>
     </row>
     <row r="24" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="377" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="25"/>
@@ -11366,35 +11639,37 @@
       <c r="L24" s="52">
         <v>69</v>
       </c>
-      <c r="M24" s="42">
+      <c r="M24" s="364">
         <f>K24-H24</f>
         <v>-7.5999999999994543</v>
       </c>
-      <c r="N24" s="43">
+      <c r="N24" s="365">
         <f t="shared" si="3"/>
         <v>-81</v>
       </c>
-      <c r="O24" s="335"/>
-      <c r="P24" s="335"/>
-      <c r="Q24" s="187"/>
+      <c r="O24" s="318"/>
+      <c r="P24" s="318"/>
+      <c r="Q24" s="374" t="s">
+        <v>90</v>
+      </c>
       <c r="R24" s="185"/>
     </row>
-    <row r="25" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="24" t="s">
+    <row r="25" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="380" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="26"/>
       <c r="E25" s="27"/>
       <c r="F25" s="86">
-        <v>17769.3</v>
+        <v>17774.66</v>
       </c>
       <c r="G25" s="87">
         <v>653</v>
       </c>
       <c r="H25" s="60">
         <f t="shared" si="0"/>
-        <v>17769.3</v>
+        <v>17774.66</v>
       </c>
       <c r="I25" s="88">
         <f t="shared" si="1"/>
@@ -11407,17 +11682,19 @@
       <c r="L25" s="52">
         <v>655</v>
       </c>
-      <c r="M25" s="191">
+      <c r="M25" s="353">
         <f t="shared" si="3"/>
-        <v>59.799999999999272</v>
-      </c>
-      <c r="N25" s="192">
+        <v>54.43999999999869</v>
+      </c>
+      <c r="N25" s="354">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="O25" s="221"/>
       <c r="P25" s="222"/>
-      <c r="Q25" s="194"/>
+      <c r="Q25" s="375" t="s">
+        <v>54</v>
+      </c>
       <c r="R25" s="185"/>
     </row>
     <row r="26" spans="2:20" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11444,7 +11721,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N26" s="192">
+      <c r="N26" s="270">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -11461,29 +11738,29 @@
       <c r="D27" s="26"/>
       <c r="E27" s="27"/>
       <c r="F27" s="86">
-        <v>10152.200000000001</v>
+        <v>0</v>
       </c>
       <c r="G27" s="87">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H27" s="60">
         <f t="shared" si="0"/>
-        <v>10152.200000000001</v>
+        <v>0</v>
       </c>
       <c r="I27" s="88">
-        <f t="shared" ref="H27:I35" si="4">G27+D27</f>
-        <v>11</v>
+        <f t="shared" ref="H27:I36" si="4">G27+D27</f>
+        <v>0</v>
       </c>
       <c r="J27" s="31"/>
       <c r="K27" s="83"/>
       <c r="L27" s="52"/>
       <c r="M27" s="191">
         <f t="shared" si="3"/>
-        <v>-10152.200000000001</v>
-      </c>
-      <c r="N27" s="192">
+        <v>0</v>
+      </c>
+      <c r="N27" s="270">
         <f t="shared" si="3"/>
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="O27" s="223"/>
       <c r="P27" s="224"/>
@@ -11515,17 +11792,19 @@
       <c r="J28" s="31"/>
       <c r="K28" s="83"/>
       <c r="L28" s="52"/>
-      <c r="M28" s="191">
+      <c r="M28" s="356">
         <f t="shared" si="3"/>
         <v>-2060</v>
       </c>
-      <c r="N28" s="192">
+      <c r="N28" s="290">
         <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="O28" s="226"/>
       <c r="P28" s="227"/>
-      <c r="Q28" s="194"/>
+      <c r="Q28" s="376" t="s">
+        <v>94</v>
+      </c>
       <c r="R28" s="185"/>
     </row>
     <row r="29" spans="2:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -11560,7 +11839,7 @@
         <f t="shared" si="3"/>
         <v>0.23000000000000398</v>
       </c>
-      <c r="N29" s="192">
+      <c r="N29" s="270">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -11569,46 +11848,50 @@
       <c r="Q29" s="190"/>
       <c r="R29" s="185"/>
     </row>
-    <row r="30" spans="2:20" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="112" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="46"/>
+    <row r="30" spans="2:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="384" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="96">
+        <v>-2098</v>
+      </c>
+      <c r="D30" s="386" t="s">
+        <v>99</v>
+      </c>
       <c r="E30" s="113"/>
       <c r="F30" s="96"/>
       <c r="G30" s="106"/>
-      <c r="H30" s="100">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="88">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="H30" s="387">
+        <f t="shared" ref="H30" si="5">F30+C30</f>
+        <v>-2098</v>
+      </c>
+      <c r="I30" s="385" t="s">
+        <v>99</v>
       </c>
       <c r="J30" s="31"/>
       <c r="K30" s="83"/>
       <c r="L30" s="52"/>
-      <c r="M30" s="191">
+      <c r="M30" s="388">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="192">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O30" s="232"/>
-      <c r="P30" s="233"/>
-      <c r="Q30" s="194"/>
+        <v>2098</v>
+      </c>
+      <c r="N30" s="389" t="s">
+        <v>99</v>
+      </c>
+      <c r="O30" s="390"/>
+      <c r="P30" s="391"/>
+      <c r="Q30" s="392" t="s">
+        <v>100</v>
+      </c>
       <c r="R30" s="185"/>
     </row>
-    <row r="31" spans="2:20" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="272" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="105"/>
+    <row r="31" spans="2:20" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="112" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="45"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="113"/>
       <c r="F31" s="96"/>
       <c r="G31" s="106"/>
       <c r="H31" s="100">
@@ -11623,139 +11906,141 @@
       <c r="K31" s="83"/>
       <c r="L31" s="52"/>
       <c r="M31" s="191">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="192">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="M30:M31" si="6">K31-H31</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="270">
+        <f t="shared" ref="N30:N31" si="7">L31-I31</f>
         <v>0</v>
       </c>
       <c r="O31" s="232"/>
       <c r="P31" s="233"/>
-      <c r="Q31" s="190"/>
+      <c r="Q31" s="194"/>
       <c r="R31" s="185"/>
     </row>
-    <row r="32" spans="2:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="109" t="s">
-        <v>78</v>
+    <row r="32" spans="2:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="272" t="s">
+        <v>38</v>
       </c>
       <c r="C32" s="25"/>
       <c r="D32" s="26"/>
       <c r="E32" s="105"/>
-      <c r="F32" s="96">
-        <v>50</v>
-      </c>
-      <c r="G32" s="106">
-        <v>5</v>
-      </c>
+      <c r="F32" s="96"/>
+      <c r="G32" s="106"/>
       <c r="H32" s="100">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="I32" s="101">
+        <v>0</v>
+      </c>
+      <c r="I32" s="88">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J32" s="31"/>
       <c r="K32" s="83"/>
       <c r="L32" s="52"/>
       <c r="M32" s="191">
         <f t="shared" si="3"/>
-        <v>-50</v>
-      </c>
-      <c r="N32" s="192">
+        <v>0</v>
+      </c>
+      <c r="N32" s="270">
         <f t="shared" si="3"/>
-        <v>-5</v>
-      </c>
-      <c r="O32" s="114"/>
-      <c r="P32" s="114"/>
-      <c r="Q32" s="193"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="232"/>
+      <c r="P32" s="233"/>
+      <c r="Q32" s="190"/>
       <c r="R32" s="185"/>
     </row>
-    <row r="33" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="118"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="113"/>
+    <row r="33" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="109" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="105"/>
       <c r="F33" s="96">
-        <v>18</v>
-      </c>
-      <c r="G33" s="106">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G33" s="106"/>
       <c r="H33" s="100">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I33" s="101">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" s="31"/>
-      <c r="K33" s="83">
-        <v>79.36</v>
-      </c>
-      <c r="L33" s="52">
-        <v>7</v>
-      </c>
+      <c r="K33" s="83"/>
+      <c r="L33" s="52"/>
       <c r="M33" s="191">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="270">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="114"/>
+      <c r="P33" s="114"/>
+      <c r="Q33" s="300"/>
+      <c r="R33" s="185"/>
+    </row>
+    <row r="34" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="118">
         <v>61.36</v>
       </c>
-      <c r="N33" s="192">
-        <f t="shared" si="3"/>
+      <c r="D34" s="46">
         <v>5</v>
       </c>
-      <c r="O33" s="234"/>
-      <c r="P33" s="235"/>
-      <c r="Q33" s="187"/>
-      <c r="R33" s="185"/>
-    </row>
-    <row r="34" spans="2:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="118"/>
-      <c r="D34" s="26"/>
       <c r="E34" s="113"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="106"/>
+      <c r="F34" s="96">
+        <v>18</v>
+      </c>
+      <c r="G34" s="106">
+        <v>2</v>
+      </c>
       <c r="H34" s="100">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>79.36</v>
       </c>
       <c r="I34" s="101">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J34" s="31"/>
-      <c r="K34" s="119"/>
-      <c r="L34" s="120"/>
-      <c r="M34" s="42">
+      <c r="K34" s="83">
+        <v>79.36</v>
+      </c>
+      <c r="L34" s="52">
+        <v>7</v>
+      </c>
+      <c r="M34" s="191">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N34" s="43">
+      <c r="N34" s="270">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O34" s="230"/>
-      <c r="P34" s="231"/>
-      <c r="Q34" s="193"/>
+      <c r="O34" s="234"/>
+      <c r="P34" s="235"/>
+      <c r="Q34" s="187"/>
       <c r="R34" s="185"/>
     </row>
-    <row r="35" spans="2:18" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="141" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="25"/>
+    <row r="35" spans="2:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="118"/>
       <c r="D35" s="26"/>
       <c r="E35" s="113"/>
       <c r="F35" s="96"/>
       <c r="G35" s="106"/>
-      <c r="H35" s="63">
+      <c r="H35" s="100">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -11764,8 +12049,8 @@
         <v>0</v>
       </c>
       <c r="J35" s="31"/>
-      <c r="K35" s="122"/>
-      <c r="L35" s="123"/>
+      <c r="K35" s="119"/>
+      <c r="L35" s="120"/>
       <c r="M35" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11774,186 +12059,245 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O35" s="236"/>
-      <c r="P35" s="237"/>
-      <c r="Q35" s="193"/>
+      <c r="O35" s="230"/>
+      <c r="P35" s="231"/>
+      <c r="Q35" s="300"/>
       <c r="R35" s="185"/>
     </row>
-    <row r="36" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="126"/>
-      <c r="D36" s="128"/>
-      <c r="F36" s="327" t="s">
+    <row r="36" spans="2:18" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="141" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="113"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="101">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="31"/>
+      <c r="K36" s="122"/>
+      <c r="L36" s="123"/>
+      <c r="M36" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="236"/>
+      <c r="P36" s="237"/>
+      <c r="Q36" s="300"/>
+      <c r="R36" s="185"/>
+    </row>
+    <row r="37" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="126"/>
+      <c r="D37" s="128"/>
+      <c r="F37" s="310" t="s">
         <v>43</v>
       </c>
-      <c r="G36" s="327"/>
-      <c r="H36" s="129">
+      <c r="G37" s="310"/>
+      <c r="H37" s="129">
         <f>SUM(H5:H29)</f>
-        <v>44751.680000000008</v>
-      </c>
-      <c r="I36" s="130">
+        <v>34604.840000000004</v>
+      </c>
+      <c r="I37" s="130">
         <f>SUM(I5:I29)</f>
-        <v>1383</v>
-      </c>
-      <c r="J36" s="131"/>
-      <c r="K36" s="132">
-        <f>SUM(K5:K34)</f>
+        <v>1372</v>
+      </c>
+      <c r="J37" s="131"/>
+      <c r="K37" s="132">
+        <f>SUM(K5:K35)</f>
         <v>32541.78</v>
       </c>
-      <c r="L36" s="133" t="s">
+      <c r="L37" s="133" t="s">
         <v>63</v>
       </c>
-      <c r="M36" s="238"/>
-      <c r="N36" s="239"/>
-      <c r="O36" s="240"/>
-      <c r="P36" s="241"/>
-      <c r="Q36" s="193"/>
-      <c r="R36" s="185"/>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="M37" s="195"/>
-      <c r="N37" s="196"/>
-      <c r="O37" s="197"/>
-      <c r="Q37" s="198"/>
-    </row>
-    <row r="38" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="136"/>
-      <c r="C38" s="137"/>
-      <c r="D38" s="136"/>
-      <c r="E38" s="136"/>
-      <c r="F38" s="136"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="2:18" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="337" t="s">
+      <c r="M37" s="238"/>
+      <c r="N37" s="239"/>
+      <c r="O37" s="240"/>
+      <c r="P37" s="241"/>
+      <c r="Q37" s="300"/>
+      <c r="R37" s="185"/>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="M38" s="195"/>
+      <c r="N38" s="196"/>
+      <c r="O38" s="197"/>
+      <c r="Q38" s="241"/>
+    </row>
+    <row r="39" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="136"/>
+      <c r="C39" s="137"/>
+      <c r="D39" s="136"/>
+      <c r="E39" s="136"/>
+      <c r="F39" s="136"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="2:18" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="405" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="254" t="s">
+      <c r="C40" s="397" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="296"/>
-      <c r="E39" s="297"/>
-      <c r="F39" s="297"/>
-      <c r="G39" s="298"/>
-      <c r="H39" s="298"/>
-      <c r="I39" s="298"/>
-      <c r="J39" s="298"/>
-      <c r="K39" s="298"/>
-      <c r="L39" s="299"/>
-      <c r="M39" s="211"/>
-      <c r="N39" s="212"/>
-    </row>
-    <row r="40" spans="2:18" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="337"/>
-      <c r="C40" s="291" t="s">
+      <c r="D40" s="305" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="301"/>
+      <c r="F40" s="301"/>
+      <c r="G40" s="302"/>
+      <c r="H40" s="302"/>
+      <c r="I40" s="302"/>
+      <c r="J40" s="302"/>
+      <c r="K40" s="302"/>
+      <c r="L40" s="303"/>
+      <c r="M40" s="304"/>
+      <c r="N40" s="212"/>
+    </row>
+    <row r="41" spans="2:18" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="406"/>
+      <c r="C41" s="398" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="292"/>
-      <c r="E40" s="293"/>
-      <c r="F40" s="293"/>
-      <c r="G40" s="294"/>
-      <c r="H40" s="294"/>
-      <c r="I40" s="294"/>
-      <c r="J40" s="294"/>
-      <c r="K40" s="294"/>
-      <c r="L40" s="295"/>
-      <c r="M40" s="211"/>
-      <c r="N40" s="212"/>
-    </row>
-    <row r="41" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="337"/>
-      <c r="C41" s="281" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="300"/>
-      <c r="E41" s="301"/>
-      <c r="F41" s="301"/>
-      <c r="G41" s="302"/>
-      <c r="H41" s="302"/>
-      <c r="I41" s="302"/>
-      <c r="J41" s="251"/>
-      <c r="K41" s="251"/>
-      <c r="L41" s="252"/>
+      <c r="D41" s="357" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="357"/>
+      <c r="F41" s="357"/>
+      <c r="G41" s="357"/>
+      <c r="H41" s="357"/>
+      <c r="I41" s="357"/>
+      <c r="J41" s="357"/>
+      <c r="K41" s="357"/>
+      <c r="L41" s="357"/>
       <c r="M41" s="211"/>
       <c r="N41" s="212"/>
     </row>
     <row r="42" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="244"/>
-      <c r="C42" s="287" t="s">
+      <c r="B42" s="406"/>
+      <c r="C42" s="399" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="338"/>
-      <c r="E42" s="339"/>
-      <c r="F42" s="339"/>
-      <c r="G42" s="339"/>
-      <c r="H42" s="339"/>
-      <c r="I42" s="339"/>
-      <c r="J42" s="339"/>
-      <c r="K42" s="340"/>
-      <c r="L42" s="206"/>
+      <c r="D42" s="296"/>
+      <c r="E42" s="297" t="s">
+        <v>87</v>
+      </c>
+      <c r="F42" s="297"/>
+      <c r="G42" s="298"/>
+      <c r="H42" s="298"/>
+      <c r="I42" s="298"/>
+      <c r="J42" s="298"/>
+      <c r="K42" s="298"/>
+      <c r="L42" s="362"/>
       <c r="M42" s="211"/>
       <c r="N42" s="212"/>
     </row>
     <row r="43" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="244"/>
-      <c r="C43" s="204"/>
-      <c r="D43" s="341"/>
-      <c r="E43" s="342"/>
-      <c r="F43" s="342"/>
-      <c r="G43" s="342"/>
-      <c r="H43" s="342"/>
-      <c r="I43" s="342"/>
-      <c r="J43" s="342"/>
-      <c r="K43" s="343"/>
-      <c r="L43" s="206"/>
-      <c r="M43" s="207"/>
-      <c r="N43" s="208"/>
+      <c r="B43" s="406"/>
+      <c r="C43" s="400" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="363" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="363"/>
+      <c r="F43" s="363"/>
+      <c r="G43" s="363"/>
+      <c r="H43" s="363"/>
+      <c r="I43" s="363"/>
+      <c r="J43" s="363"/>
+      <c r="K43" s="363"/>
+      <c r="L43" s="363"/>
+      <c r="M43" s="211"/>
+      <c r="N43" s="212"/>
     </row>
     <row r="44" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="244"/>
-      <c r="C44" s="204"/>
-      <c r="D44" s="209"/>
-      <c r="E44" s="185"/>
-      <c r="F44" s="185"/>
-      <c r="G44" s="185"/>
-      <c r="H44" s="185"/>
-      <c r="I44" s="185"/>
-      <c r="J44" s="185"/>
-      <c r="K44" s="185"/>
-      <c r="L44" s="206"/>
+      <c r="B44" s="406"/>
+      <c r="C44" s="401" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="396" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" s="366"/>
+      <c r="F44" s="366"/>
+      <c r="G44" s="366"/>
+      <c r="H44" s="366"/>
+      <c r="I44" s="366"/>
+      <c r="J44" s="366"/>
+      <c r="K44" s="367"/>
+      <c r="L44" s="368"/>
       <c r="M44" s="207"/>
       <c r="N44" s="208"/>
     </row>
     <row r="45" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="244"/>
-      <c r="C45" s="204"/>
-      <c r="D45" s="210"/>
-      <c r="E45" s="185"/>
-      <c r="F45" s="185"/>
-      <c r="G45" s="185"/>
-      <c r="H45" s="185"/>
-      <c r="I45" s="185"/>
-      <c r="J45" s="185"/>
-      <c r="K45" s="185"/>
-      <c r="L45" s="206"/>
+      <c r="B45" s="406"/>
+      <c r="C45" s="402" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="378" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45" s="355"/>
+      <c r="F45" s="355"/>
+      <c r="G45" s="355"/>
+      <c r="H45" s="355"/>
+      <c r="I45" s="355"/>
+      <c r="J45" s="355"/>
+      <c r="K45" s="355"/>
+      <c r="L45" s="379"/>
       <c r="M45" s="207"/>
       <c r="N45" s="208"/>
     </row>
-    <row r="46" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C46" s="149"/>
+    <row r="46" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="406"/>
+      <c r="C46" s="403" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="381" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" s="382"/>
+      <c r="F46" s="382"/>
+      <c r="G46" s="382"/>
+      <c r="H46" s="382"/>
+      <c r="I46" s="382"/>
+      <c r="J46" s="382"/>
+      <c r="K46" s="382"/>
+      <c r="L46" s="383"/>
+      <c r="M46" s="207"/>
+      <c r="N46" s="208"/>
+    </row>
+    <row r="47" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="407"/>
+      <c r="C47" s="404" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" s="395" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" s="393"/>
+      <c r="F47" s="393"/>
+      <c r="G47" s="393"/>
+      <c r="H47" s="393"/>
+      <c r="I47" s="393"/>
+      <c r="J47" s="393"/>
+      <c r="K47" s="393"/>
+      <c r="L47" s="394"/>
     </row>
   </sheetData>
   <sortState ref="B5:H33">
     <sortCondition ref="B5:B33"/>
   </sortState>
-  <mergeCells count="21">
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="D42:K43"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="F36:G36"/>
+  <mergeCells count="22">
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
@@ -11967,6 +12311,15 @@
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="D41:L41"/>
+    <mergeCell ref="D43:L43"/>
+    <mergeCell ref="B40:B47"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
